--- a/Office/PowerBI/Folha+de+Pagamento+e+Vendas.xlsx
+++ b/Office/PowerBI/Folha+de+Pagamento+e+Vendas.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office Avançado com VBA 2022\PowerBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1fbfea02e7ee62fc/Documentos/Curso/Office/PowerBI/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{82730CEC-F46F-48FF-9AAE-780BB62D73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4CF092-9E70-4E0D-814E-79E911F9C9E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha de Pagamento" sheetId="1" r:id="rId1"/>
     <sheet name="Faturamento Regional" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Faturamento Regional'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Folha de Pagamento'!$A$1:$F$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -279,20 +285,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -309,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,17 +578,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,234 +602,214 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1600</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1700</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>65</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="2">
-        <f>IF(D3&lt;=10,100,IF(D3&lt;=30,500,IF(D3&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <f>IF(D3&lt;50,0,IF(D3&lt;100,500,1200))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1600</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1600</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1700</v>
       </c>
-      <c r="D6" s="8">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2">
-        <f>IF(D6&lt;=10,100,IF(D6&lt;=30,500,IF(D6&lt;=45,1200,0)))</f>
+        <f>IF(D6&lt;50,0,IF(D6&lt;100,500,1200))</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>1300</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1600</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>1700</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>129</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="2">
-        <f>IF(D9&lt;=10,100,IF(D9&lt;=30,500,IF(D9&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+        <f>IF(D9&lt;50,0,IF(D9&lt;100,500,1200))</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>1300</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>1700</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>128</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="2">
-        <f>IF(D12&lt;=10,100,IF(D12&lt;=30,500,IF(D12&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+        <f>IF(D12&lt;50,0,IF(D12&lt;100,500,1200))</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>1600</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,10 +819,8 @@
       <c r="C16" s="2">
         <v>1300</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,10 +830,8 @@
       <c r="C17" s="2">
         <v>1200</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,10 +841,8 @@
       <c r="C18" s="2">
         <v>1200</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +852,6 @@
       <c r="C19" s="2">
         <v>1300</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -883,116 +863,110 @@
       <c r="C20" s="2">
         <v>1700</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>58</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="2">
-        <f>IF(D20&lt;=10,100,IF(D20&lt;=30,500,IF(D20&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F20:F21" si="0">IF(D20&lt;50,0,IF(D20&lt;100,500,1200))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>1700</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>127</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(D21&lt;=10,100,IF(D21&lt;=30,500,IF(D21&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>1700</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>1700</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>1700</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="2">
-        <f>IF(D24&lt;=10,100,IF(D24&lt;=30,500,IF(D24&lt;=45,1200,0)))</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(D24&lt;50,0,IF(D24&lt;100,500,1200))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>1700</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>1700</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="2">
-        <f>IF(D26&lt;=10,100,IF(D26&lt;=30,500,IF(D26&lt;=45,1200,0)))</f>
+        <f t="shared" ref="F26:F27" si="1">IF(D26&lt;50,0,IF(D26&lt;100,500,1200))</f>
         <v>0</v>
       </c>
     </row>
@@ -1000,1092 +974,1259 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>1700</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>55</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="2">
-        <f>IF(D27&lt;=10,100,IF(D27&lt;=30,500,IF(D27&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>1700</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>1700</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>1700</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>27</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="2">
-        <f>IF(D30&lt;=10,100,IF(D30&lt;=30,500,IF(D30&lt;=45,1200,0)))</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(D30&lt;50,0,IF(D30&lt;100,500,1200))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>1700</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33">
         <v>65</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2">
-        <f>IF(D33&lt;=10,100,IF(D33&lt;=30,500,IF(D33&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F33:F36" si="2">IF(D33&lt;50,0,IF(D33&lt;100,500,1200))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>1700</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
         <v>36</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="2">
-        <f>IF(D34&lt;=10,100,IF(D34&lt;=30,500,IF(D34&lt;=45,1200,0)))</f>
-        <v>1200</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>1700</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35">
         <v>119</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="2">
-        <f>IF(D35&lt;=10,100,IF(D35&lt;=30,500,IF(D35&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>1700</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36">
         <v>48</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="2">
-        <f>IF(D36&lt;=10,100,IF(D36&lt;=30,500,IF(D36&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>1700</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>1700</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41">
         <v>53</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="2">
-        <f>IF(D41&lt;=10,100,IF(D41&lt;=30,500,IF(D41&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F41:F43" si="3">IF(D41&lt;50,0,IF(D41&lt;100,500,1200))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>1700</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="2">
-        <f>IF(D42&lt;=10,100,IF(D42&lt;=30,500,IF(D42&lt;=45,1200,0)))</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>1700</v>
       </c>
-      <c r="D43" s="8">
-        <v>27</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="2">
-        <f>IF(D43&lt;=10,100,IF(D43&lt;=30,500,IF(D43&lt;=45,1200,0)))</f>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F43" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VENDAS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
+        <f>'Folha de Pagamento'!A1</f>
+        <v>Setor</v>
+      </c>
+      <c r="B1" s="1" t="str">
         <f>'Folha de Pagamento'!B1</f>
         <v xml:space="preserve">Nome </v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="C1" s="1" t="str">
         <f>'Folha de Pagamento'!D1</f>
         <v>Vendas</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="E1" s="1" t="str">
         <f>'Folha de Pagamento'!E1</f>
         <v>Região</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>'Folha de Pagamento'!A2</f>
+        <v>ADM</v>
+      </c>
+      <c r="B2" t="str">
         <f>'Folha de Pagamento'!B2</f>
         <v>THOMAS SILVA</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <f>'Folha de Pagamento'!D2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <f>B2*79.8</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <f>C2*79.8</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <f>'Folha de Pagamento'!E2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>'Folha de Pagamento'!A3</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B3" t="str">
         <f>'Folha de Pagamento'!B3</f>
         <v>JULIETE MORAES</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f>'Folha de Pagamento'!D3</f>
         <v>65</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C43" si="0">B3*79.8</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D43" si="0">C3*79.8</f>
         <v>5187</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <f>'Folha de Pagamento'!E3</f>
         <v>São Paulo</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>'Folha de Pagamento'!A4</f>
+        <v>ADM</v>
+      </c>
+      <c r="B4" t="str">
         <f>'Folha de Pagamento'!B4</f>
         <v>POMPÍLIO MACEDO</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f>'Folha de Pagamento'!D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <f>'Folha de Pagamento'!E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>'Folha de Pagamento'!A5</f>
+        <v>ADM</v>
+      </c>
+      <c r="B5" t="str">
         <f>'Folha de Pagamento'!B5</f>
         <v>JOSÉ NUNES</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f>'Folha de Pagamento'!D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f>'Folha de Pagamento'!E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>'Folha de Pagamento'!A6</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B6" t="str">
         <f>'Folha de Pagamento'!B6</f>
         <v>RIBAMAR PEIXOTO</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f>'Folha de Pagamento'!D6</f>
-        <v>36</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>2872.7999999999997</v>
-      </c>
-      <c r="D6" t="str">
+        <v>300</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>23940</v>
+      </c>
+      <c r="E6" t="str">
         <f>'Folha de Pagamento'!E6</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>'Folha de Pagamento'!A7</f>
+        <v>ATENDIMENTO</v>
+      </c>
+      <c r="B7" t="str">
         <f>'Folha de Pagamento'!B7</f>
         <v>ROSA GUIMARÃES</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f>'Folha de Pagamento'!D7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f>'Folha de Pagamento'!E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>'Folha de Pagamento'!A8</f>
+        <v>ADM</v>
+      </c>
+      <c r="B8" t="str">
         <f>'Folha de Pagamento'!B8</f>
         <v>SOARES JUNIOR</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f>'Folha de Pagamento'!D8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <f>'Folha de Pagamento'!E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>'Folha de Pagamento'!A9</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B9" t="str">
         <f>'Folha de Pagamento'!B9</f>
         <v>MARINÊS ROSA</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f>'Folha de Pagamento'!D9</f>
         <v>129</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>10294.199999999999</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f>'Folha de Pagamento'!E9</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>'Folha de Pagamento'!A10</f>
+        <v>ATENDIMENTO</v>
+      </c>
+      <c r="B10" t="str">
         <f>'Folha de Pagamento'!B10</f>
         <v>JULIA SILVA</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f>'Folha de Pagamento'!D10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f>'Folha de Pagamento'!E10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>'Folha de Pagamento'!A11</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B11" t="str">
         <f>'Folha de Pagamento'!B11</f>
         <v>THOMAS JOSÉ</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f>'Folha de Pagamento'!D11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f>'Folha de Pagamento'!E11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>'Folha de Pagamento'!A12</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B12" t="str">
         <f>'Folha de Pagamento'!B12</f>
         <v>ROSA GALVÃO</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f>'Folha de Pagamento'!D12</f>
         <v>128</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>10214.4</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f>'Folha de Pagamento'!E12</f>
         <v>Amazonas</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>'Folha de Pagamento'!A13</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B13" t="str">
         <f>'Folha de Pagamento'!B13</f>
         <v>JULIA PAZ</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f>'Folha de Pagamento'!D13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f>'Folha de Pagamento'!E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>'Folha de Pagamento'!A14</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B14" t="str">
         <f>'Folha de Pagamento'!B14</f>
         <v>SATORU KAWATA</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f>'Folha de Pagamento'!D14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f>'Folha de Pagamento'!E14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>'Folha de Pagamento'!A15</f>
+        <v>ADM</v>
+      </c>
+      <c r="B15" t="str">
         <f>'Folha de Pagamento'!B15</f>
         <v>MOHAMMED LIMA</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f>'Folha de Pagamento'!D15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f>'Folha de Pagamento'!E15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>'Folha de Pagamento'!A16</f>
+        <v>COZINHA</v>
+      </c>
+      <c r="B16" t="str">
         <f>'Folha de Pagamento'!B16</f>
         <v>TÚLIO MANOEL</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f>'Folha de Pagamento'!D16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f>'Folha de Pagamento'!E16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>'Folha de Pagamento'!A17</f>
+        <v>AJUDANTE</v>
+      </c>
+      <c r="B17" t="str">
         <f>'Folha de Pagamento'!B17</f>
         <v>MARIA SILVA</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f>'Folha de Pagamento'!D17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f>'Folha de Pagamento'!E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>'Folha de Pagamento'!A18</f>
+        <v>AJUDANTE</v>
+      </c>
+      <c r="B18" t="str">
         <f>'Folha de Pagamento'!B18</f>
         <v>NICOLAS SILAS</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f>'Folha de Pagamento'!D18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f>'Folha de Pagamento'!E18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>'Folha de Pagamento'!A19</f>
+        <v>COZINHA</v>
+      </c>
+      <c r="B19" t="str">
         <f>'Folha de Pagamento'!B19</f>
         <v>ALFREDO DA LUZ</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f>'Folha de Pagamento'!D19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
         <f>'Folha de Pagamento'!E19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>'Folha de Pagamento'!A20</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B20" t="str">
         <f>'Folha de Pagamento'!B20</f>
         <v>THABATA CAROLINE</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f>'Folha de Pagamento'!D20</f>
         <v>58</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>4628.3999999999996</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f>'Folha de Pagamento'!E20</f>
         <v>São Paulo</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>'Folha de Pagamento'!A21</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B21" t="str">
         <f>'Folha de Pagamento'!B21</f>
         <v xml:space="preserve">JULIO ALMEIDA </v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f>'Folha de Pagamento'!D21</f>
         <v>127</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>10134.6</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f>'Folha de Pagamento'!E21</f>
         <v>São Paulo</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>'Folha de Pagamento'!A22</f>
+        <v>ADM</v>
+      </c>
+      <c r="B22" t="str">
         <f>'Folha de Pagamento'!B22</f>
         <v xml:space="preserve"> LUIZA SILVA </v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f>'Folha de Pagamento'!D22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
         <f>'Folha de Pagamento'!E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>'Folha de Pagamento'!A23</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B23" t="str">
         <f>'Folha de Pagamento'!B23</f>
         <v xml:space="preserve"> FERNANDO ALVES </v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f>'Folha de Pagamento'!D23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
         <f>'Folha de Pagamento'!E23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>'Folha de Pagamento'!A24</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B24" t="str">
         <f>'Folha de Pagamento'!B24</f>
         <v xml:space="preserve"> ROBERTO ANDRADE </v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f>'Folha de Pagamento'!D24</f>
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>2793</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f>'Folha de Pagamento'!E24</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>'Folha de Pagamento'!A25</f>
+        <v>ADM</v>
+      </c>
+      <c r="B25" t="str">
         <f>'Folha de Pagamento'!B25</f>
         <v xml:space="preserve"> PIETRA BARBOSA </v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <f>'Folha de Pagamento'!D25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
         <f>'Folha de Pagamento'!E25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>'Folha de Pagamento'!A26</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B26" t="str">
         <f>'Folha de Pagamento'!B26</f>
         <v xml:space="preserve"> ANA BARROS </v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <f>'Folha de Pagamento'!D26</f>
         <v>48</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>3830.3999999999996</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f>'Folha de Pagamento'!E26</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>'Folha de Pagamento'!A27</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B27" t="str">
         <f>'Folha de Pagamento'!B27</f>
         <v xml:space="preserve"> JOÃO LIMA </v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <f>'Folha de Pagamento'!D27</f>
         <v>55</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>4389</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f>'Folha de Pagamento'!E27</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>'Folha de Pagamento'!A28</f>
+        <v>ADM</v>
+      </c>
+      <c r="B28" t="str">
         <f>'Folha de Pagamento'!B28</f>
         <v xml:space="preserve"> LUCAS BATISTA </v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <f>'Folha de Pagamento'!D28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f>'Folha de Pagamento'!E28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>'Folha de Pagamento'!A29</f>
+        <v>COZINHA</v>
+      </c>
+      <c r="B29" t="str">
         <f>'Folha de Pagamento'!B29</f>
         <v xml:space="preserve"> SELMA BORGES </v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <f>'Folha de Pagamento'!D29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f>'Folha de Pagamento'!E29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>'Folha de Pagamento'!A30</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B30" t="str">
         <f>'Folha de Pagamento'!B30</f>
         <v xml:space="preserve"> ANDERSON CAMPOS </v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <f>'Folha de Pagamento'!D30</f>
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>2154.6</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f>'Folha de Pagamento'!E30</f>
         <v>Bahia</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>'Folha de Pagamento'!A31</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B31" t="str">
         <f>'Folha de Pagamento'!B31</f>
         <v xml:space="preserve"> INGRID CARVALHO </v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <f>'Folha de Pagamento'!D31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
         <f>'Folha de Pagamento'!E31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>'Folha de Pagamento'!A32</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B32" t="str">
         <f>'Folha de Pagamento'!B32</f>
         <v xml:space="preserve"> MELISSA ANDRADE </v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <f>'Folha de Pagamento'!D32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
         <f>'Folha de Pagamento'!E32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f>'Folha de Pagamento'!A33</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B33" t="str">
         <f>'Folha de Pagamento'!B33</f>
         <v xml:space="preserve"> GABRIEL FREITAS </v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <f>'Folha de Pagamento'!D33</f>
         <v>65</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>5187</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f>'Folha de Pagamento'!E33</f>
         <v>Paraná</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f>'Folha de Pagamento'!A34</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B34" t="str">
         <f>'Folha de Pagamento'!B34</f>
         <v xml:space="preserve"> RAFAEL DUARTE </v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <f>'Folha de Pagamento'!D34</f>
         <v>36</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>2872.7999999999997</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f>'Folha de Pagamento'!E34</f>
         <v>Bahia</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f>'Folha de Pagamento'!A35</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B35" t="str">
         <f>'Folha de Pagamento'!B35</f>
         <v xml:space="preserve"> ERICA SAMPAIO </v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <f>'Folha de Pagamento'!D35</f>
         <v>119</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>9496.1999999999989</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <f>'Folha de Pagamento'!E35</f>
         <v>São Paulo</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>'Folha de Pagamento'!A36</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B36" t="str">
         <f>'Folha de Pagamento'!B36</f>
         <v xml:space="preserve"> ANDREZA LOPES </v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <f>'Folha de Pagamento'!D36</f>
         <v>48</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>3830.3999999999996</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <f>'Folha de Pagamento'!E36</f>
         <v>Minas Gerais</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>'Folha de Pagamento'!A37</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B37" t="str">
         <f>'Folha de Pagamento'!B37</f>
         <v xml:space="preserve"> FERNANDA MACHADO </v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <f>'Folha de Pagamento'!D37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
         <f>'Folha de Pagamento'!E37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>'Folha de Pagamento'!A38</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B38" t="str">
         <f>'Folha de Pagamento'!B38</f>
         <v xml:space="preserve"> YASMIN MARQUES </v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <f>'Folha de Pagamento'!D38</f>
         <v>0</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
         <f>'Folha de Pagamento'!E38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>'Folha de Pagamento'!A39</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B39" t="str">
         <f>'Folha de Pagamento'!B39</f>
         <v xml:space="preserve"> VIVIANE MARTINS </v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <f>'Folha de Pagamento'!D39</f>
         <v>0</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
         <f>'Folha de Pagamento'!E39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>'Folha de Pagamento'!A40</f>
+        <v>PRODUÇÃO</v>
+      </c>
+      <c r="B40" t="str">
         <f>'Folha de Pagamento'!B40</f>
         <v xml:space="preserve"> MARIANA MEDEIROS </v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <f>'Folha de Pagamento'!D40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
         <f>'Folha de Pagamento'!E40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>'Folha de Pagamento'!A41</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B41" t="str">
         <f>'Folha de Pagamento'!B41</f>
         <v xml:space="preserve"> WAGNER PEREIRA </v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <f>'Folha de Pagamento'!D41</f>
         <v>53</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>4229.3999999999996</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <f>'Folha de Pagamento'!E41</f>
         <v>São Paulo</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>'Folha de Pagamento'!A42</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B42" t="str">
         <f>'Folha de Pagamento'!B42</f>
         <v xml:space="preserve"> SILVIA RAMOS </v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <f>'Folha de Pagamento'!D42</f>
         <v>2</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <f>'Folha de Pagamento'!E42</f>
         <v>Rio de Janeiro</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>'Folha de Pagamento'!A43</f>
+        <v>VENDAS</v>
+      </c>
+      <c r="B43" t="str">
         <f>'Folha de Pagamento'!B43</f>
         <v xml:space="preserve"> DANIELA REIS </v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <f>'Folha de Pagamento'!D43</f>
-        <v>27</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" si="0"/>
-        <v>2154.6</v>
-      </c>
-      <c r="D43" t="str">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>7980</v>
+      </c>
+      <c r="E43" t="str">
         <f>'Folha de Pagamento'!E43</f>
         <v>Amazonas</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>